--- a/SterilGARD_SGX04_All_Models_Extracted_Data.xlsx
+++ b/SterilGARD_SGX04_All_Models_Extracted_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>mfr website</t>
   </si>
@@ -142,6 +142,12 @@
     <t>Baker</t>
   </si>
   <si>
+    <t>SG404</t>
+  </si>
+  <si>
+    <t>Class II, Type A2 Biosafety Cabinet</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 20 </t>
   </si>
   <si>
@@ -160,6 +166,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">1,434 </t>
+  </si>
+  <si>
     <t>Air</t>
   </si>
   <si>
@@ -172,10 +181,22 @@
     <t>SterilGARD-SGX04-Product-Specifications-RevE.pdf</t>
   </si>
   <si>
+    <t>SG504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,844 </t>
+  </si>
+  <si>
     <t>864</t>
   </si>
   <si>
     <t>714</t>
+  </si>
+  <si>
+    <t>SG604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,629 </t>
   </si>
   <si>
     <t>941</t>
@@ -754,60 +775,66 @@
         <v>41</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="Q2" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="4">
         <v>30.6693079</v>
@@ -819,16 +846,16 @@
         <v>53.7401865</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -845,60 +872,66 @@
         <v>41</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="Q3" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="4">
         <v>30.6693079</v>
@@ -910,16 +943,16 @@
         <v>65.74806699999999</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
@@ -936,60 +969,66 @@
         <v>41</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="Q4" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AA4" s="4">
         <v>30.6693079</v>
@@ -1001,16 +1040,16 @@
         <v>77.75594749999999</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
